--- a/Minnesota Twins.xlsx
+++ b/Minnesota Twins.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>yearID</t>
   </si>
@@ -22,7 +22,13 @@
     <t>teamID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>attendance</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>ID</t>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
   <si>
     <t>MIN</t>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,741 +429,840 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1985</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>1651814</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2">
         <v>5263</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>36670</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5764821</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1986</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>1255453</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
         <v>20053</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>43032</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>8748167</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>2081976</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
         <v>14463</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>17838</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>6397500</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>3030672</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>91</v>
+      </c>
+      <c r="F5">
         <v>51428</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>46184</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>12462666</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2277438</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
         <v>72875</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>50850</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>15531666</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>1751584</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>74</v>
+      </c>
+      <c r="F7">
         <v>133434</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>74160</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>14602000</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>2293842</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>95</v>
+      </c>
+      <c r="F8">
         <v>107892</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>50064</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>23361833</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
         <v>2482428</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
         <v>146034</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>59136</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>28027834</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>2048673</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>71</v>
+      </c>
+      <c r="F10">
         <v>200706</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>70620</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>28217933</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1398565</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>53</v>
+      </c>
+      <c r="F11">
         <v>209745</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>65040</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>28438500</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1995</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>1057667</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>56</v>
+      </c>
+      <c r="F12">
         <v>261525</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>72468</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>25410500</v>
       </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1996</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>1437352</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>78</v>
+      </c>
+      <c r="F13">
         <v>292809</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>73392</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>23117000</v>
       </c>
-      <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1997</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>1411064</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>68</v>
+      </c>
+      <c r="F14">
         <v>303862</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>69812</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>34072500</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1998</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>1165976</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
         <v>313606</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>66178</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>27927500</v>
       </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1999</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>1202829</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>63</v>
+      </c>
+      <c r="F16">
         <v>342722</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>67048</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>21257500</v>
       </c>
-      <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2000</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
         <v>1000760</v>
       </c>
-      <c r="D17">
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="F17">
         <v>331019</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>60892</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>16519500</v>
       </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2001</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
         <v>1782929</v>
       </c>
-      <c r="D18">
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="F18">
         <v>366444</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>64044</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>24130000</v>
       </c>
-      <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
         <v>1924473</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>94</v>
+      </c>
+      <c r="F19">
         <v>389691</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>64854</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>40425000</v>
       </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
         <v>1946011</v>
       </c>
-      <c r="D20">
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
         <v>396721</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>63232</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>55505000</v>
       </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2004</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
         <v>1911490</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <v>92</v>
+      </c>
+      <c r="F21">
         <v>418353</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>64012</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>53585000</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2005</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>2034243</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <v>83</v>
+      </c>
+      <c r="F22">
         <v>456840</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>67284</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>56186000</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2006</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>2285018</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
         <v>461305</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>65572</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>63396006</v>
       </c>
-      <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>2296383</v>
       </c>
-      <c r="D24">
+      <c r="E24">
+        <v>79</v>
+      </c>
+      <c r="F24">
         <v>520282</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>71456</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>71439500</v>
       </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>2302431</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>88</v>
+      </c>
+      <c r="F25">
         <v>485575</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>64550</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>56932766</v>
       </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
         <v>2416237</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
         <v>587308</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>75748</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>65299266</v>
       </c>
-      <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2010</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
         <v>3223640</v>
       </c>
-      <c r="D27">
+      <c r="E27">
+        <v>94</v>
+      </c>
+      <c r="F27">
         <v>590170</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>73976</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>97559166</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
         <v>3168116</v>
       </c>
-      <c r="D28">
+      <c r="E28">
+        <v>63</v>
+      </c>
+      <c r="F28">
         <v>547725</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>66800</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>112737000</v>
       </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
         <v>2776354</v>
       </c>
-      <c r="D29">
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
         <v>614493</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>72954</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>94085000</v>
       </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2013</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
         <v>2477644</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
         <v>636633</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>73764</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>75337500</v>
       </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2014</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
         <v>2250606</v>
       </c>
-      <c r="D31">
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
         <v>658665</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>74574</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>83762500</v>
       </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2015</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>2220054</v>
       </c>
-      <c r="D32">
+      <c r="E32">
+        <v>83</v>
+      </c>
+      <c r="F32">
         <v>630225</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>69800</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>107755000</v>
       </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2016</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
         <v>1963912</v>
       </c>
-      <c r="D33">
+      <c r="E33">
+        <v>59</v>
+      </c>
+      <c r="F33">
         <v>625212</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>67728</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>102583200</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
